--- a/Thesis - Matlab/Repulsion-based Adaptive/RADE.xlsx
+++ b/Thesis - Matlab/Repulsion-based Adaptive/RADE.xlsx
@@ -71,13 +71,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="0">
-        <v>0.16330497816741879</v>
+        <v>0.16333344923352705</v>
       </c>
       <c r="C1" s="0">
-        <v>6.1231583094564304</v>
+        <v>6.1224343260023932</v>
       </c>
       <c r="D1" s="0">
-        <v>-0.99919281189012621</v>
+        <v>-0.99999973440321066</v>
       </c>
     </row>
     <row r="2">
@@ -85,265 +85,259 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>-6.1172568128415632</v>
+        <v>-6.4371630172129048</v>
       </c>
       <c r="C2" s="0">
-        <v>-0.16349208586165015</v>
+        <v>0.15534787301586134</v>
       </c>
       <c r="D2" s="0">
-        <v>-0.99959138905831013</v>
+        <v>-0.99999946369216908</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>0.66742970489356879</v>
+        <v>-0.15528341781260169</v>
       </c>
       <c r="C3" s="0">
-        <v>0.69001565107849894</v>
+        <v>6.4398359563826322</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.99930196370184698</v>
+        <v>-0.99999938316959802</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.93227178326648719</v>
+        <v>0.66712084146552164</v>
       </c>
       <c r="C4" s="0">
-        <v>1.0678262624068577</v>
+        <v>0.69010350943409582</v>
       </c>
       <c r="D4" s="0">
-        <v>-0.99961560961679874</v>
+        <v>-0.99999927869690297</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="0">
-        <v>-6.1168254266850903</v>
+        <v>0.16333342196023326</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.16354663095729202</v>
+        <v>6.1224343821625036</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.99900856088844958</v>
+        <v>-0.99999938976424985</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="0">
-        <v>0.66677586382387344</v>
+        <v>-6.1171129607148682</v>
       </c>
       <c r="C6" s="0">
-        <v>0.69048239431908642</v>
+        <v>-0.16347553048365895</v>
       </c>
       <c r="D6" s="0">
-        <v>-0.99923912735032017</v>
+        <v>-0.99999951040133539</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.15526703591634536</v>
+        <v>-6.1171132571277296</v>
       </c>
       <c r="C7" s="0">
-        <v>6.4398684972163718</v>
+        <v>-0.16347558011860028</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.99975050963362699</v>
+        <v>-0.9999992639689359</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.15526798679781978</v>
+        <v>0.16333344036472702</v>
       </c>
       <c r="C8" s="0">
-        <v>6.4396469585676686</v>
+        <v>6.1224340722605159</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.99956931362085366</v>
+        <v>-0.9999997440207149</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" s="0">
-        <v>-6.1179152078459111</v>
+        <v>0.66712094274412859</v>
       </c>
       <c r="C9" s="0">
-        <v>-0.16345696033842619</v>
+        <v>0.69010361664716335</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.99918626086579732</v>
+        <v>-0.99999905463087857</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" s="0">
-        <v>0.66673477663952108</v>
+        <v>-0.15528343270111603</v>
       </c>
       <c r="C10" s="0">
-        <v>0.69045796672539794</v>
+        <v>6.4398354967204909</v>
       </c>
       <c r="D10" s="0">
-        <v>-0.99922455166322899</v>
+        <v>-0.9999992741586109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.93196428892366967</v>
+        <v>-6.1171126249341876</v>
       </c>
       <c r="C11" s="0">
-        <v>1.0676114397477476</v>
+        <v>-0.16347554588901636</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.99900251937910001</v>
+        <v>-0.99999922283799547</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B12" s="0">
-        <v>-6.1164851579510895</v>
+        <v>-6.1171129684253627</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.1634946854138965</v>
+        <v>-0.16347557899942475</v>
       </c>
       <c r="D12" s="0">
-        <v>-0.9993622370052111</v>
+        <v>-0.99999908222646183</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B13" s="0">
-        <v>0.66689929007397442</v>
+        <v>-0.1552833710231025</v>
       </c>
       <c r="C13" s="0">
-        <v>0.6904848115404072</v>
+        <v>6.4398362574549992</v>
       </c>
       <c r="D13" s="0">
-        <v>-0.99912787735527542</v>
+        <v>-0.99999934546586744</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>4</v>
-      </c>
-      <c r="B14" s="0">
-        <v>-0.9322538943458315</v>
-      </c>
-      <c r="C14" s="0">
-        <v>1.068066873572276</v>
-      </c>
-      <c r="D14" s="0">
-        <v>-0.99925076375793143</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B15" s="0">
-        <v>0.66714482788744467</v>
+        <v>0.16333342123239539</v>
       </c>
       <c r="C15" s="0">
-        <v>0.69014410125523973</v>
+        <v>6.1224343896762861</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.9998662532546142</v>
+        <v>-0.99999937651682369</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B16" s="0">
-        <v>0.16330694083828851</v>
+        <v>-6.1171134848190345</v>
       </c>
       <c r="C16" s="0">
-        <v>6.122338699251368</v>
+        <v>-0.16347545458201992</v>
       </c>
       <c r="D16" s="0">
-        <v>-0.99952201422128217</v>
+        <v>-0.99999917313322917</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B17" s="0">
-        <v>-6.4368759576236041</v>
+        <v>0.16333339090818844</v>
       </c>
       <c r="C17" s="0">
-        <v>0.15538997935648707</v>
+        <v>6.1224342846867907</v>
       </c>
       <c r="D17" s="0">
-        <v>-0.99921867355837712</v>
+        <v>-0.99999910606212383</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B18" s="0">
-        <v>-6.4369731499266294</v>
+        <v>-6.1171127314766496</v>
       </c>
       <c r="C18" s="0">
-        <v>0.15532086076352172</v>
+        <v>-0.16347552572838686</v>
       </c>
       <c r="D18" s="0">
-        <v>-0.99943183441223671</v>
+        <v>-0.99999914447311677</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B19" s="0">
-        <v>0.16327712433926203</v>
+        <v>0.16333347120182484</v>
       </c>
       <c r="C19" s="0">
-        <v>6.1224649196315077</v>
+        <v>6.1224332134330783</v>
       </c>
       <c r="D19" s="0">
-        <v>-0.99929553936655691</v>
+        <v>-0.99999900864452718</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B20" s="0">
-        <v>0.66712325673492112</v>
+        <v>0.6671207754461127</v>
       </c>
       <c r="C20" s="0">
-        <v>0.68994340114268238</v>
+        <v>0.69010360991765884</v>
       </c>
       <c r="D20" s="0">
-        <v>-0.9995575673534649</v>
+        <v>-0.99999916212646955</v>
       </c>
     </row>
     <row r="21">
@@ -551,13 +545,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="0">
-        <v>-0.99961560961679874</v>
+        <v>-0.99999973440321066</v>
       </c>
       <c r="D1" s="0">
-        <v>5.1129629000000003</v>
+        <v>3.5445150000000001</v>
       </c>
     </row>
     <row r="2">
@@ -565,13 +559,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="0">
-        <v>-0.99975050963362699</v>
+        <v>-0.99999938316959802</v>
       </c>
       <c r="D2" s="0">
-        <v>4.8820598999999998</v>
+        <v>3.5275175999999999</v>
       </c>
     </row>
     <row r="3">
@@ -579,13 +573,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="0">
-        <v>-0.99956931362085366</v>
+        <v>-0.99999951040133539</v>
       </c>
       <c r="D3" s="0">
-        <v>5.1505986999999998</v>
+        <v>3.4639194999999998</v>
       </c>
     </row>
     <row r="4">
@@ -596,10 +590,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.9993622370052111</v>
+        <v>-0.9999997440207149</v>
       </c>
       <c r="D4" s="0">
-        <v>5.4484364000000003</v>
+        <v>3.5530854999999999</v>
       </c>
     </row>
     <row r="5">
@@ -607,13 +601,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.9998662532546142</v>
+        <v>-0.9999992741586109</v>
       </c>
       <c r="D5" s="0">
-        <v>4.9822657000000001</v>
+        <v>3.3913305</v>
       </c>
     </row>
     <row r="6">
@@ -621,13 +615,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.9995575673534649</v>
+        <v>-0.99999934546586744</v>
       </c>
       <c r="D6" s="0">
-        <v>5.0556979999999996</v>
+        <v>3.5654222</v>
       </c>
     </row>
     <row r="7">
@@ -635,13 +629,11 @@
         <v>7</v>
       </c>
       <c r="B7" s="0">
-        <v>3</v>
-      </c>
-      <c r="C7" s="0">
-        <v>-0.99997360172774385</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C7" s="0"/>
       <c r="D7" s="0">
-        <v>6.0023748000000001</v>
+        <v>3.3269017999999999</v>
       </c>
     </row>
     <row r="8">
@@ -649,13 +641,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.99952927389833746</v>
+        <v>-0.99999937651682369</v>
       </c>
       <c r="D8" s="0">
-        <v>5.8211103</v>
+        <v>3.4152623000000002</v>
       </c>
     </row>
     <row r="9">
@@ -663,13 +655,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" s="0">
-        <v>-0.99914559031697625</v>
+        <v>-0.99999917313322917</v>
       </c>
       <c r="D9" s="0">
-        <v>5.9381936</v>
+        <v>3.4970568000000002</v>
       </c>
     </row>
     <row r="10">
@@ -680,10 +672,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="0">
-        <v>-0.99942336783404606</v>
+        <v>-0.99999916212646955</v>
       </c>
       <c r="D10" s="0">
-        <v>4.8674578000000004</v>
+        <v>3.9861328</v>
       </c>
     </row>
   </sheetData>
